--- a/db.xlsx
+++ b/db.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Table 1</t>
   </si>
@@ -52,10 +52,16 @@
     <t>State</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
     <t>Phone</t>
   </si>
   <si>
     <t>Rank</t>
+  </si>
+  <si>
+    <t>Review Star</t>
   </si>
   <si>
     <t>Nima</t>
@@ -74,7 +80,7 @@
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
-      <t>https://www.google.com/imgres?imgurl=https%3A%2F%2Fmedia.licdn.com%2Fdms%2Fimage%2FD4E03AQEDyWV42HOrhw%2Fprofile-displayphoto-shrink_800_800%2F0%2F1702430703848%3Fe%3D2147483647%26v%3Dbeta%26t%3DQuIZ0lAegKgTGZ-T3jVbZFwGOvbel2V_epNSOIPYI4Y&amp;tbnid=SGBrcXFW9_2kuM&amp;vet=12ahUKEwipgNSw09ODAxVIkIkEHQffALAQMygBegQIARA1..i&amp;imgrefurl=https%3A%2F%2Fwww.linkedin.com%2Fin%2Fnima-farshid-09b81b15&amp;docid=-UHRH301Xq8KxM&amp;w=800&amp;h=800&amp;q=nima%20farshid&amp;ved=2ahUKEwipgNSw09ODAxVIkIkEHQffALAQMygBegQIARA1</t>
+      <t>https://biohackingcongress.com/storage/users/June2023/9Q67Ebbs5rPLWWmWGZET.png</t>
     </r>
   </si>
   <si>
@@ -296,7 +302,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -319,6 +325,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1409,7 +1418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:N23"/>
+  <dimension ref="A2:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1417,8 +1426,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="14" width="16.3516" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="16" width="16.3516" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -1438,6 +1447,8 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
     </row>
     <row r="2" ht="32.25" customHeight="1">
       <c r="A2" t="s" s="3">
@@ -1482,377 +1493,427 @@
       <c r="N2" t="s" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" ht="440.25" customHeight="1">
+      <c r="O2" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="P2" t="s" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="92.25" customHeight="1">
       <c r="A3" t="s" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s" s="5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s" s="6">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s" s="6">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s" s="6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s" s="6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s" s="6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s" s="6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s" s="6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s" s="6">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3" s="7">
         <v>34786</v>
       </c>
       <c r="L3" t="s" s="6">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s" s="6">
-        <v>26</v>
-      </c>
-      <c r="N3" s="7">
+        <v>27</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" t="s" s="6">
+        <v>28</v>
+      </c>
+      <c r="O3" s="7">
         <v>3</v>
       </c>
+      <c r="P3" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" location="" tooltip="" display="https://www.google.com/imgres?imgurl=https%3A%2F%2Fmedia.licdn.com%2Fdms%2Fimage%2FD4E03AQEDyWV42HOrhw%2Fprofile-displayphoto-shrink_800_800%2F0%2F1702430703848%3Fe%3D2147483647%26v%3Dbeta%26t%3DQuIZ0lAegKgTGZ-T3jVbZFwGOvbel2V_epNSOIPYI4Y&amp;tbnid=SGBrcXFW9_2kuM&amp;vet=12ahUKEwipgNSw09ODAxVIkIkEHQffALAQMygBegQIARA1..i&amp;imgrefurl=https%3A%2F%2Fwww.linkedin.com%2Fin%2Fnima-farshid-09b81b15&amp;docid=-UHRH301Xq8KxM&amp;w=800&amp;h=800&amp;q=nima%20farshid&amp;ved=2ahUKEwipgNSw09ODAxVIkIkEHQffALAQMygBegQIARA1"/>
+    <hyperlink ref="D3" r:id="rId1" location="" tooltip="" display="https://biohackingcongress.com/storage/users/June2023/9Q67Ebbs5rPLWWmWGZET.png"/>
     <hyperlink ref="F3" r:id="rId2" location="" tooltip="" display="https://www.lightworkersapp.com/members/6341244"/>
     <hyperlink ref="G3" r:id="rId3" location="" tooltip="" display="https://calendly.com/nimafarshid/biowell"/>
     <hyperlink ref="H3" r:id="rId4" location="" tooltip="" display="https://www.facebook.com/gaiahealers/"/>
